--- a/דיווח שעות -סטטיסטיקה2024.xlsx
+++ b/דיווח שעות -סטטיסטיקה2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\Shared_Files\STAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ido\sheba stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE2CFD-A1A2-4B7D-98FF-276CC2DE76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11340"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,30 +161,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
@@ -482,8 +482,8 @@
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -495,28 +495,24 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -524,7 +520,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
